--- a/data_year/zb/教育/各级各类民办教育基本情况/各级各类民办教育另有其他学生数.xlsx
+++ b/data_year/zb/教育/各级各类民办教育基本情况/各级各类民办教育另有其他学生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,154 +463,132 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.0763</v>
+        <v>35.9683</v>
       </c>
       <c r="C2" t="n">
-        <v>85.22190000000001</v>
+        <v>92.1841</v>
       </c>
       <c r="D2" t="n">
-        <v>844.9263</v>
+        <v>929.7762</v>
       </c>
       <c r="E2" t="n">
-        <v>1.5962</v>
+        <v>1.8736</v>
       </c>
       <c r="F2" t="n">
-        <v>19.3942</v>
+        <v>20.6078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.9683</v>
+        <v>37.6946</v>
       </c>
       <c r="C3" t="n">
-        <v>92.1841</v>
+        <v>88.1399</v>
       </c>
       <c r="D3" t="n">
-        <v>929.7762</v>
+        <v>955.456</v>
       </c>
       <c r="E3" t="n">
-        <v>1.8736</v>
+        <v>2.9128</v>
       </c>
       <c r="F3" t="n">
-        <v>20.6078</v>
+        <v>26.0042</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.6946</v>
+        <v>34.8246</v>
       </c>
       <c r="C4" t="n">
-        <v>88.1399</v>
+        <v>82.8241</v>
       </c>
       <c r="D4" t="n">
-        <v>955.456</v>
+        <v>860.6443</v>
       </c>
       <c r="E4" t="n">
-        <v>2.9128</v>
+        <v>3.408</v>
       </c>
       <c r="F4" t="n">
-        <v>26.0042</v>
+        <v>22.0351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.8246</v>
+        <v>30.2303</v>
       </c>
       <c r="C5" t="n">
-        <v>82.8241</v>
+        <v>87.9922</v>
       </c>
       <c r="D5" t="n">
-        <v>860.6443</v>
+        <v>943.5604</v>
       </c>
       <c r="E5" t="n">
-        <v>3.408</v>
+        <v>2.8956</v>
       </c>
       <c r="F5" t="n">
-        <v>22.0351</v>
+        <v>25.8426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.2303</v>
+        <v>29.4471</v>
       </c>
       <c r="C6" t="n">
-        <v>87.9922</v>
+        <v>88.3009</v>
       </c>
       <c r="D6" t="n">
-        <v>943.5604</v>
+        <v>867.9376999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>2.8956</v>
+        <v>2.9095</v>
       </c>
       <c r="F6" t="n">
-        <v>25.8426</v>
+        <v>31.7345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.4471</v>
+        <v>25.826</v>
       </c>
       <c r="C7" t="n">
-        <v>88.3009</v>
+        <v>77.74160000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>867.9376999999999</v>
+        <v>898.6589</v>
       </c>
       <c r="E7" t="n">
-        <v>2.9095</v>
+        <v>3.9467</v>
       </c>
       <c r="F7" t="n">
-        <v>31.7345</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>25.826</v>
-      </c>
-      <c r="C8" t="n">
-        <v>77.74160000000001</v>
-      </c>
-      <c r="D8" t="n">
-        <v>898.6589</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.9467</v>
-      </c>
-      <c r="F8" t="n">
         <v>31.5265</v>
       </c>
     </row>
